--- a/data-files/TodayvisitParamater.xlsx
+++ b/data-files/TodayvisitParamater.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tle256\eclipse-workspace\Sample\data-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tle256\eclipse-workspace\LCA-Automation\data-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4204BAEF-8658-48E6-875C-8C0D2B706113}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB49F5-A3F9-4190-BE89-C2155F7A4607}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1410" windowWidth="19440" windowHeight="15000" tabRatio="754" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePage" sheetId="5" r:id="rId1"/>
@@ -1024,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B3D75A-820B-4048-B0CD-B521C27447FE}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1131,16 +1131,6 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1150,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C46E484-0633-4302-A17B-58EB331E280F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
